--- a/TIpData.xlsx
+++ b/TIpData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachnoe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139F07F8-E44A-FC48-A7F6-3C67732E5D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0936A02-3B1D-E54D-B0C1-7F96A444817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{1F5CFD0A-4A68-B042-8227-B6B2FDE90BB6}"/>
   </bookViews>
@@ -35,12 +35,304 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Audubon Park</t>
+  </si>
+  <si>
+    <t>Bancroft</t>
+  </si>
+  <si>
+    <t>Barbourmeade</t>
+  </si>
+  <si>
+    <t>Beechwood Village</t>
+  </si>
+  <si>
+    <t>Bellemeade</t>
+  </si>
+  <si>
+    <t>Bellewood</t>
+  </si>
+  <si>
+    <t>Blue Ridge Manor</t>
+  </si>
+  <si>
+    <t>Briarwood</t>
+  </si>
+  <si>
+    <t>Broeck Pointe</t>
+  </si>
+  <si>
+    <t>Brownsboro Farm</t>
+  </si>
+  <si>
+    <t>Brownsboro Village</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Coldstream</t>
+  </si>
+  <si>
+    <t>Creekside</t>
+  </si>
+  <si>
+    <t>Crossgate</t>
+  </si>
+  <si>
+    <t>Douglass Hills</t>
+  </si>
+  <si>
+    <t>Druid Hills</t>
+  </si>
+  <si>
+    <t>Fincastle</t>
+  </si>
+  <si>
+    <t>Forest Hills</t>
+  </si>
+  <si>
+    <t>Glenview</t>
+  </si>
+  <si>
+    <t>Glenview Hills</t>
+  </si>
+  <si>
+    <t>Glenview Manor</t>
+  </si>
+  <si>
+    <t>Goose Creek</t>
+  </si>
+  <si>
+    <t>Graymoor-Devondale</t>
+  </si>
+  <si>
+    <t>Green Spring</t>
+  </si>
+  <si>
+    <t>Heritage Creek (originally Minor Lane Heights)</t>
+  </si>
+  <si>
+    <t>Hickory Hill</t>
+  </si>
+  <si>
+    <t>Hills and Dales</t>
+  </si>
+  <si>
+    <t>Hollow Creek</t>
+  </si>
+  <si>
+    <t>Hollyvilla</t>
+  </si>
+  <si>
+    <t>Houston Acres</t>
+  </si>
+  <si>
+    <t>Hurstbourne</t>
+  </si>
+  <si>
+    <t>Hurstbourne Acres</t>
+  </si>
+  <si>
+    <t>Indian Hills</t>
+  </si>
+  <si>
+    <t>Jeffersontown</t>
+  </si>
+  <si>
+    <t>Kingsley</t>
+  </si>
+  <si>
+    <t>Langdon Place</t>
+  </si>
+  <si>
+    <t>Lincolnshire</t>
+  </si>
+  <si>
+    <t>Lyndon</t>
+  </si>
+  <si>
+    <t>Keeneland</t>
+  </si>
+  <si>
+    <t>Lynnview</t>
+  </si>
+  <si>
+    <t>Manor Creek</t>
+  </si>
+  <si>
+    <t>Maryhill Estates</t>
+  </si>
+  <si>
+    <t>Meadowbrook Farm</t>
+  </si>
+  <si>
+    <t>Meadow Vale</t>
+  </si>
+  <si>
+    <t>Meadowview Estates</t>
+  </si>
+  <si>
+    <t>Middletown</t>
+  </si>
+  <si>
+    <t>Mockingbird Valley</t>
+  </si>
+  <si>
+    <t>Moorland</t>
+  </si>
+  <si>
+    <t>Murray Hill</t>
+  </si>
+  <si>
+    <t>Norbourne Estates</t>
+  </si>
+  <si>
+    <t>Northfield</t>
+  </si>
+  <si>
+    <t>Norwood</t>
+  </si>
+  <si>
+    <t>Old Brownsboro Place</t>
+  </si>
+  <si>
+    <t>Parkway Village</t>
+  </si>
+  <si>
+    <t>Plantation</t>
+  </si>
+  <si>
+    <t>Poplar Hills</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Richlawn</t>
+  </si>
+  <si>
+    <t>Riverwood</t>
+  </si>
+  <si>
+    <t>Rolling Fields</t>
+  </si>
+  <si>
+    <t>Rolling Hills</t>
+  </si>
+  <si>
+    <t>St. Matthews</t>
+  </si>
+  <si>
+    <t>Broad Fields</t>
+  </si>
+  <si>
+    <t>Cherrywood Village</t>
+  </si>
+  <si>
+    <t>Fairmeade</t>
+  </si>
+  <si>
+    <t>Plymouth Village</t>
+  </si>
+  <si>
+    <t>Springlee</t>
+  </si>
+  <si>
+    <t>Warwick Village</t>
+  </si>
+  <si>
+    <t>St. Regis Park</t>
+  </si>
+  <si>
+    <t>Seneca Gardens</t>
+  </si>
+  <si>
+    <t>Shively</t>
+  </si>
+  <si>
+    <t>Spring Mill</t>
+  </si>
+  <si>
+    <t>Spring Valley</t>
+  </si>
+  <si>
+    <t>Strathmoor Manor</t>
+  </si>
+  <si>
+    <t>Strathmoor Village</t>
+  </si>
+  <si>
+    <t>Sycamore</t>
+  </si>
+  <si>
+    <t>Ten Broeck</t>
+  </si>
+  <si>
+    <t>Thornhill</t>
+  </si>
+  <si>
+    <t>Watterson Park</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>West Buechel</t>
+  </si>
+  <si>
+    <t>Westwood</t>
+  </si>
+  <si>
+    <t>Whipps Millgate</t>
+  </si>
+  <si>
+    <t>Wildwood</t>
+  </si>
+  <si>
+    <t>Windy Hills</t>
+  </si>
+  <si>
+    <t>Woodland Hills</t>
+  </si>
+  <si>
+    <t>Woodlawn Park</t>
+  </si>
+  <si>
+    <t>Worthington Hills</t>
+  </si>
+  <si>
+    <t>Cities In Louisville</t>
+  </si>
+  <si>
+    <t>Tip Average</t>
+  </si>
+  <si>
+    <t>Average Order Size</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +355,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,12 +677,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959CCA49-BFCD-174E-9353-27E841F65EB3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Anchorage, Kentucky" display="https://en.wikipedia.org/wiki/Anchorage,_Kentucky" xr:uid="{97364718-9735-184A-8292-E652FD4FEE9C}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Audubon Park, Kentucky" display="https://en.wikipedia.org/wiki/Audubon_Park,_Kentucky" xr:uid="{12100F1F-BC48-C74E-B2DB-B29B8438AAF0}"/>
+    <hyperlink ref="A4" r:id="rId3" tooltip="Bancroft, Kentucky" display="https://en.wikipedia.org/wiki/Bancroft,_Kentucky" xr:uid="{A2CF3071-C6B6-154D-9795-FF20F83D87A6}"/>
+    <hyperlink ref="A5" r:id="rId4" tooltip="Barbourmeade, Kentucky" display="https://en.wikipedia.org/wiki/Barbourmeade,_Kentucky" xr:uid="{55767803-6B16-A348-B3AD-5BADDD0D1273}"/>
+    <hyperlink ref="A6" r:id="rId5" tooltip="Beechwood Village, Kentucky" display="https://en.wikipedia.org/wiki/Beechwood_Village,_Kentucky" xr:uid="{B1290AE4-BF99-CC4E-9EAA-1768ECACB023}"/>
+    <hyperlink ref="A7" r:id="rId6" tooltip="Bellemeade, Kentucky" display="https://en.wikipedia.org/wiki/Bellemeade,_Kentucky" xr:uid="{84736A5D-7979-524A-BEFB-0B4B9F2CCA5D}"/>
+    <hyperlink ref="A8" r:id="rId7" tooltip="Bellewood, Kentucky" display="https://en.wikipedia.org/wiki/Bellewood,_Kentucky" xr:uid="{815A6048-7021-974B-8A7B-577571406A8B}"/>
+    <hyperlink ref="A9" r:id="rId8" tooltip="Blue Ridge Manor, Kentucky" display="https://en.wikipedia.org/wiki/Blue_Ridge_Manor,_Kentucky" xr:uid="{638DCE62-4642-1948-A24C-0BD277BC84BA}"/>
+    <hyperlink ref="A10" r:id="rId9" tooltip="Briarwood, Kentucky" display="https://en.wikipedia.org/wiki/Briarwood,_Kentucky" xr:uid="{F5396F7F-3C11-6A4C-813F-7FFD364F3EA3}"/>
+    <hyperlink ref="A11" r:id="rId10" tooltip="Broeck Pointe, Kentucky" display="https://en.wikipedia.org/wiki/Broeck_Pointe,_Kentucky" xr:uid="{FE6E92A8-A49D-5C43-9289-1CE63F17C0F5}"/>
+    <hyperlink ref="A12" r:id="rId11" tooltip="Brownsboro Farm, Kentucky" display="https://en.wikipedia.org/wiki/Brownsboro_Farm,_Kentucky" xr:uid="{CCF3FA4D-A34C-8E45-BD1B-D1FE3AF8A291}"/>
+    <hyperlink ref="A13" r:id="rId12" tooltip="Brownsboro Village, Kentucky" display="https://en.wikipedia.org/wiki/Brownsboro_Village,_Kentucky" xr:uid="{1D4E57F6-F524-5D43-94E5-0EAC769284AF}"/>
+    <hyperlink ref="A14" r:id="rId13" tooltip="Cambridge, Kentucky" display="https://en.wikipedia.org/wiki/Cambridge,_Kentucky" xr:uid="{A8E4213C-4C4C-1D42-9551-F990012A2C21}"/>
+    <hyperlink ref="A15" r:id="rId14" tooltip="Coldstream, Kentucky" display="https://en.wikipedia.org/wiki/Coldstream,_Kentucky" xr:uid="{EA47FB8B-FA6F-0B43-B790-D7BECA9FFAC2}"/>
+    <hyperlink ref="A16" r:id="rId15" tooltip="Creekside, Kentucky" display="https://en.wikipedia.org/wiki/Creekside,_Kentucky" xr:uid="{BF1B0ADF-7FD1-BE4F-8371-C9D08517AF1E}"/>
+    <hyperlink ref="A17" r:id="rId16" tooltip="Crossgate, Kentucky" display="https://en.wikipedia.org/wiki/Crossgate,_Kentucky" xr:uid="{D883D664-EB52-484C-842C-E12B1E6894CE}"/>
+    <hyperlink ref="A18" r:id="rId17" tooltip="Douglass Hills, Kentucky" display="https://en.wikipedia.org/wiki/Douglass_Hills,_Kentucky" xr:uid="{5C594CE3-4D4E-7947-A9A5-4703A8853376}"/>
+    <hyperlink ref="A19" r:id="rId18" tooltip="Druid Hills, Kentucky" display="https://en.wikipedia.org/wiki/Druid_Hills,_Kentucky" xr:uid="{F8560249-3CE5-0A47-A3A4-91F2D1B950EC}"/>
+    <hyperlink ref="A20" r:id="rId19" tooltip="Fincastle, Kentucky" display="https://en.wikipedia.org/wiki/Fincastle,_Kentucky" xr:uid="{764719A4-392A-2842-8F37-2B7DDF52FF30}"/>
+    <hyperlink ref="A21" r:id="rId20" tooltip="Forest Hills, Kentucky" display="https://en.wikipedia.org/wiki/Forest_Hills,_Kentucky" xr:uid="{939D7FBA-039A-E045-B3AA-6A09DA4EF520}"/>
+    <hyperlink ref="A22" r:id="rId21" tooltip="Glenview, Kentucky" display="https://en.wikipedia.org/wiki/Glenview,_Kentucky" xr:uid="{2FB60DE5-A7ED-7E4D-BEF8-A936D651EDA0}"/>
+    <hyperlink ref="A23" r:id="rId22" tooltip="Glenview Hills, Kentucky" display="https://en.wikipedia.org/wiki/Glenview_Hills,_Kentucky" xr:uid="{E1D3395F-38A2-2848-B493-163A203F9BE3}"/>
+    <hyperlink ref="A24" r:id="rId23" tooltip="Glenview Manor, Kentucky" display="https://en.wikipedia.org/wiki/Glenview_Manor,_Kentucky" xr:uid="{0CA0CE43-4752-4143-82D8-B8B8F9E503FD}"/>
+    <hyperlink ref="A25" r:id="rId24" tooltip="Goose Creek, Kentucky" display="https://en.wikipedia.org/wiki/Goose_Creek,_Kentucky" xr:uid="{4989ECA2-8E09-DC42-9733-0E3FFA7813EB}"/>
+    <hyperlink ref="A26" r:id="rId25" tooltip="Graymoor-Devondale, Kentucky" display="https://en.wikipedia.org/wiki/Graymoor-Devondale,_Kentucky" xr:uid="{74F35156-A209-3C4F-988E-3D7DEB8C1A1E}"/>
+    <hyperlink ref="A27" r:id="rId26" tooltip="Green Spring, Kentucky" display="https://en.wikipedia.org/wiki/Green_Spring,_Kentucky" xr:uid="{3E09DC34-05A3-F046-8E1D-13AC9ED7802A}"/>
+    <hyperlink ref="A28" r:id="rId27" tooltip="Heritage Creek, Kentucky" display="https://en.wikipedia.org/wiki/Heritage_Creek,_Kentucky" xr:uid="{6DA0C857-818E-4E4E-A18C-6312C36656BD}"/>
+    <hyperlink ref="A29" r:id="rId28" tooltip="Hickory Hill, Kentucky" display="https://en.wikipedia.org/wiki/Hickory_Hill,_Kentucky" xr:uid="{990A6FAF-DD99-A04E-8F76-10D5E783B76B}"/>
+    <hyperlink ref="A30" r:id="rId29" tooltip="Hills and Dales, Kentucky" display="https://en.wikipedia.org/wiki/Hills_and_Dales,_Kentucky" xr:uid="{548540A7-1633-FC46-951E-E9ACAC980E97}"/>
+    <hyperlink ref="A31" r:id="rId30" tooltip="Hollow Creek, Kentucky" display="https://en.wikipedia.org/wiki/Hollow_Creek,_Kentucky" xr:uid="{DADBE503-9EB3-B04D-B806-256BCC71A6CC}"/>
+    <hyperlink ref="A32" r:id="rId31" tooltip="Hollyvilla, Kentucky" display="https://en.wikipedia.org/wiki/Hollyvilla,_Kentucky" xr:uid="{DA90E98B-6A09-984A-BF86-403F001A85F6}"/>
+    <hyperlink ref="A33" r:id="rId32" tooltip="Houston Acres, Kentucky" display="https://en.wikipedia.org/wiki/Houston_Acres,_Kentucky" xr:uid="{F57245E6-1E52-6B40-9483-225C6EF1C754}"/>
+    <hyperlink ref="A34" r:id="rId33" tooltip="Hurstbourne, Kentucky" display="https://en.wikipedia.org/wiki/Hurstbourne,_Kentucky" xr:uid="{670ADD8C-2E68-A94F-B54E-18132D7D5326}"/>
+    <hyperlink ref="A35" r:id="rId34" tooltip="Hurstbourne Acres, Kentucky" display="https://en.wikipedia.org/wiki/Hurstbourne_Acres,_Kentucky" xr:uid="{E3FE19DF-6202-FC41-8927-23666F34C3FE}"/>
+    <hyperlink ref="A36" r:id="rId35" tooltip="Indian Hills, Kentucky" display="https://en.wikipedia.org/wiki/Indian_Hills,_Kentucky" xr:uid="{9C1993C6-781E-DF47-844F-813F8142EBFE}"/>
+    <hyperlink ref="A37" r:id="rId36" tooltip="Jeffersontown, Kentucky" display="https://en.wikipedia.org/wiki/Jeffersontown,_Kentucky" xr:uid="{2AF467B8-BCF4-A144-947B-64091232F41B}"/>
+    <hyperlink ref="A38" r:id="rId37" tooltip="Kingsley, Kentucky" display="https://en.wikipedia.org/wiki/Kingsley,_Kentucky" xr:uid="{7A7E3915-921D-8044-8503-930F1197815F}"/>
+    <hyperlink ref="A39" r:id="rId38" tooltip="Langdon Place, Kentucky" display="https://en.wikipedia.org/wiki/Langdon_Place,_Kentucky" xr:uid="{3010FC2E-9345-9D49-BE05-C0485578E711}"/>
+    <hyperlink ref="A40" r:id="rId39" tooltip="Lincolnshire, Kentucky" display="https://en.wikipedia.org/wiki/Lincolnshire,_Kentucky" xr:uid="{426B8420-A64D-2043-8DA9-2B6BE50FE335}"/>
+    <hyperlink ref="A41" r:id="rId40" tooltip="Lyndon, Kentucky" display="https://en.wikipedia.org/wiki/Lyndon,_Kentucky" xr:uid="{EF302974-ECF1-CB49-9BCE-BA2083D12F1E}"/>
+    <hyperlink ref="A42" r:id="rId41" tooltip="Keeneland, Lyndon, Kentucky" display="https://en.wikipedia.org/wiki/Keeneland,_Lyndon,_Kentucky" xr:uid="{8C9C6148-1480-D144-9005-9E3DD1111080}"/>
+    <hyperlink ref="A43" r:id="rId42" tooltip="Lynnview, Kentucky" display="https://en.wikipedia.org/wiki/Lynnview,_Kentucky" xr:uid="{96791D10-F930-1D40-B35E-A735A74FD35B}"/>
+    <hyperlink ref="A44" r:id="rId43" tooltip="Manor Creek, Kentucky" display="https://en.wikipedia.org/wiki/Manor_Creek,_Kentucky" xr:uid="{AB118AF9-14C5-8B40-B05A-5F1A6F3CB9CA}"/>
+    <hyperlink ref="A45" r:id="rId44" tooltip="Maryhill Estates, Kentucky" display="https://en.wikipedia.org/wiki/Maryhill_Estates,_Kentucky" xr:uid="{A7F6352A-32AC-8947-80B3-15E0C442ACC7}"/>
+    <hyperlink ref="A46" r:id="rId45" tooltip="Meadowbrook Farm, Kentucky" display="https://en.wikipedia.org/wiki/Meadowbrook_Farm,_Kentucky" xr:uid="{8B5D27F6-241B-6449-98D0-8E8263C7E967}"/>
+    <hyperlink ref="A47" r:id="rId46" tooltip="Meadow Vale, Kentucky" display="https://en.wikipedia.org/wiki/Meadow_Vale,_Kentucky" xr:uid="{03887757-0D64-6741-9999-1FF54F047A8C}"/>
+    <hyperlink ref="A48" r:id="rId47" tooltip="Meadowview Estates, Kentucky" display="https://en.wikipedia.org/wiki/Meadowview_Estates,_Kentucky" xr:uid="{914B5E24-2A5E-8F4A-AB59-1928640E1136}"/>
+    <hyperlink ref="A49" r:id="rId48" tooltip="Middletown, Kentucky" display="https://en.wikipedia.org/wiki/Middletown,_Kentucky" xr:uid="{1D85BD7C-B199-A640-90CD-0F7E80278785}"/>
+    <hyperlink ref="A50" r:id="rId49" tooltip="Mockingbird Valley, Kentucky" display="https://en.wikipedia.org/wiki/Mockingbird_Valley,_Kentucky" xr:uid="{1B5062E7-A1E5-8C4D-92B8-89A70B93C809}"/>
+    <hyperlink ref="A51" r:id="rId50" tooltip="Moorland, Kentucky" display="https://en.wikipedia.org/wiki/Moorland,_Kentucky" xr:uid="{4E6F8089-9872-1A47-B54E-F3D1F0677D0E}"/>
+    <hyperlink ref="A52" r:id="rId51" tooltip="Murray Hill, Kentucky" display="https://en.wikipedia.org/wiki/Murray_Hill,_Kentucky" xr:uid="{68B465FC-FC8B-C349-BF1E-43AA324A8DC8}"/>
+    <hyperlink ref="A53" r:id="rId52" tooltip="Norbourne Estates, Kentucky" display="https://en.wikipedia.org/wiki/Norbourne_Estates,_Kentucky" xr:uid="{8314013C-F629-5B42-97E4-3F90DF1350B1}"/>
+    <hyperlink ref="A54" r:id="rId53" tooltip="Northfield, Kentucky" display="https://en.wikipedia.org/wiki/Northfield,_Kentucky" xr:uid="{DACB4AA8-2A04-0A41-BE6B-A4EA23B14B82}"/>
+    <hyperlink ref="A55" r:id="rId54" tooltip="Norwood, Kentucky" display="https://en.wikipedia.org/wiki/Norwood,_Kentucky" xr:uid="{3C2514A4-2B64-774C-BD48-31F742E1B267}"/>
+    <hyperlink ref="A56" r:id="rId55" tooltip="Old Brownsboro Place, Kentucky" display="https://en.wikipedia.org/wiki/Old_Brownsboro_Place,_Kentucky" xr:uid="{56B1C248-5C06-164A-9EE3-DE3E4AEF1F11}"/>
+    <hyperlink ref="A57" r:id="rId56" tooltip="Parkway Village, Kentucky" display="https://en.wikipedia.org/wiki/Parkway_Village,_Kentucky" xr:uid="{7C9868E3-1AFB-D44F-B8A2-2A2B50DC66C0}"/>
+    <hyperlink ref="A58" r:id="rId57" tooltip="Plantation, Kentucky" display="https://en.wikipedia.org/wiki/Plantation,_Kentucky" xr:uid="{BEF4B059-CA84-9947-A931-252CFACBF6A5}"/>
+    <hyperlink ref="A59" r:id="rId58" tooltip="Poplar Hills, Kentucky" display="https://en.wikipedia.org/wiki/Poplar_Hills,_Kentucky" xr:uid="{AE894AF7-6254-7B42-AEE6-FBFB685536ED}"/>
+    <hyperlink ref="A60" r:id="rId59" tooltip="Prospect, Kentucky" display="https://en.wikipedia.org/wiki/Prospect,_Kentucky" xr:uid="{A4D0751F-E0C0-5941-A9C0-A55A3C3A36F7}"/>
+    <hyperlink ref="A61" r:id="rId60" tooltip="Richlawn, Kentucky" display="https://en.wikipedia.org/wiki/Richlawn,_Kentucky" xr:uid="{3DE3FDBE-632D-254F-AFB1-E04A23993A88}"/>
+    <hyperlink ref="A62" r:id="rId61" tooltip="Riverwood, Kentucky" display="https://en.wikipedia.org/wiki/Riverwood,_Kentucky" xr:uid="{FEF7A94D-4CA3-C041-9B89-60ECD4DE9B6C}"/>
+    <hyperlink ref="A63" r:id="rId62" tooltip="Rolling Fields, Kentucky" display="https://en.wikipedia.org/wiki/Rolling_Fields,_Kentucky" xr:uid="{B827823F-22E5-F44B-B451-C8923E661A1D}"/>
+    <hyperlink ref="A64" r:id="rId63" tooltip="Rolling Hills, Kentucky" display="https://en.wikipedia.org/wiki/Rolling_Hills,_Kentucky" xr:uid="{4890D9B9-A045-D740-AAB5-991E12DC4A96}"/>
+    <hyperlink ref="A65" r:id="rId64" tooltip="St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/St._Matthews,_Kentucky" xr:uid="{4C14F579-FE7F-8C48-8C3D-12613D1C7838}"/>
+    <hyperlink ref="A66" r:id="rId65" tooltip="Broad Fields, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Broad_Fields,_St._Matthews,_Kentucky" xr:uid="{1E79C9C4-E13C-EC4D-A217-1F4B22A46B2A}"/>
+    <hyperlink ref="A67" r:id="rId66" tooltip="Cherrywood Village, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Cherrywood_Village,_St._Matthews,_Kentucky" xr:uid="{C10E8B6F-1908-2A4E-B59E-A8A50C7D4149}"/>
+    <hyperlink ref="A68" r:id="rId67" tooltip="Fairmeade, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Fairmeade,_St._Matthews,_Kentucky" xr:uid="{61E59C64-AD72-D542-BA8A-8D28A2E6DCB1}"/>
+    <hyperlink ref="A69" r:id="rId68" tooltip="Plymouth Village, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Plymouth_Village,_St._Matthews,_Kentucky" xr:uid="{C8E57058-2996-7E45-8BA6-EC08D35CD859}"/>
+    <hyperlink ref="A70" r:id="rId69" tooltip="Springlee, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Springlee,_St._Matthews,_Kentucky" xr:uid="{04DF3A63-C686-3348-B661-D53A54955367}"/>
+    <hyperlink ref="A71" r:id="rId70" tooltip="Warwick Village, St. Matthews, Kentucky" display="https://en.wikipedia.org/wiki/Warwick_Village,_St._Matthews,_Kentucky" xr:uid="{8B169221-326C-9548-9F05-E988E95F64A0}"/>
+    <hyperlink ref="A72" r:id="rId71" tooltip="St. Regis Park, Kentucky" display="https://en.wikipedia.org/wiki/St._Regis_Park,_Kentucky" xr:uid="{A3173014-07F8-0D49-B13D-6F37750FC149}"/>
+    <hyperlink ref="A73" r:id="rId72" tooltip="Seneca Gardens, Kentucky" display="https://en.wikipedia.org/wiki/Seneca_Gardens,_Kentucky" xr:uid="{5B1DE26B-495B-5944-8F06-4B3DF50B4367}"/>
+    <hyperlink ref="A74" r:id="rId73" tooltip="Shively, Kentucky" display="https://en.wikipedia.org/wiki/Shively,_Kentucky" xr:uid="{C0D5C400-1C59-6840-A1BB-14404A3E824A}"/>
+    <hyperlink ref="A75" r:id="rId74" tooltip="Spring Mill, Kentucky" display="https://en.wikipedia.org/wiki/Spring_Mill,_Kentucky" xr:uid="{05754E9B-E465-024B-BE01-7EDAF3D2354D}"/>
+    <hyperlink ref="A76" r:id="rId75" tooltip="Spring Valley, Kentucky" display="https://en.wikipedia.org/wiki/Spring_Valley,_Kentucky" xr:uid="{12366ED2-9384-364B-B49E-AA6184355F2B}"/>
+    <hyperlink ref="A77" r:id="rId76" tooltip="Strathmoor Manor, Kentucky" display="https://en.wikipedia.org/wiki/Strathmoor_Manor,_Kentucky" xr:uid="{CDF33C38-BEBE-F849-B0E5-3724F2E5D696}"/>
+    <hyperlink ref="A78" r:id="rId77" tooltip="Strathmoor Village, Kentucky" display="https://en.wikipedia.org/wiki/Strathmoor_Village,_Kentucky" xr:uid="{1094560C-CDA7-C348-934A-1631E04903C5}"/>
+    <hyperlink ref="A79" r:id="rId78" tooltip="Sycamore, Kentucky" display="https://en.wikipedia.org/wiki/Sycamore,_Kentucky" xr:uid="{2249C7BA-B433-F547-9E08-5B21531BB8AC}"/>
+    <hyperlink ref="A80" r:id="rId79" tooltip="Ten Broeck, Kentucky" display="https://en.wikipedia.org/wiki/Ten_Broeck,_Kentucky" xr:uid="{CD9C64AC-8541-D64D-AAA9-D171ABFDF238}"/>
+    <hyperlink ref="A81" r:id="rId80" tooltip="Thornhill, Kentucky" display="https://en.wikipedia.org/wiki/Thornhill,_Kentucky" xr:uid="{756B13BB-FF16-3D4B-9F5E-B67D44B4DA91}"/>
+    <hyperlink ref="A82" r:id="rId81" tooltip="Watterson Park, Kentucky" display="https://en.wikipedia.org/wiki/Watterson_Park,_Kentucky" xr:uid="{7B1FAAF3-E22C-D140-A716-52774623E9AB}"/>
+    <hyperlink ref="A83" r:id="rId82" tooltip="Wellington, Kentucky" display="https://en.wikipedia.org/wiki/Wellington,_Kentucky" xr:uid="{AB8486E8-B4AB-1142-8DAA-A702B2DE51F4}"/>
+    <hyperlink ref="A84" r:id="rId83" tooltip="West Buechel, Kentucky" display="https://en.wikipedia.org/wiki/West_Buechel,_Kentucky" xr:uid="{0CD8D14F-E553-4242-BB21-770F2D7A7C68}"/>
+    <hyperlink ref="A85" r:id="rId84" tooltip="Westwood, Jefferson County, Kentucky" display="https://en.wikipedia.org/wiki/Westwood,_Jefferson_County,_Kentucky" xr:uid="{76062955-94F0-6F4C-8C4F-0D7DE71BAECF}"/>
+    <hyperlink ref="A86" r:id="rId85" tooltip="Whipps Millgate, Kentucky" display="https://en.wikipedia.org/wiki/Whipps_Millgate,_Kentucky" xr:uid="{B999D1C4-E4AF-594E-BE27-35DE64272EA1}"/>
+    <hyperlink ref="A87" r:id="rId86" tooltip="Wildwood, Kentucky" display="https://en.wikipedia.org/wiki/Wildwood,_Kentucky" xr:uid="{68433DD6-7ED2-B749-8EB9-2C478BB7DA1D}"/>
+    <hyperlink ref="A88" r:id="rId87" tooltip="Windy Hills, Kentucky" display="https://en.wikipedia.org/wiki/Windy_Hills,_Kentucky" xr:uid="{1C0F7B9D-776F-C84D-85FA-A6BE8FD3F0C4}"/>
+    <hyperlink ref="A89" r:id="rId88" tooltip="Woodland Hills, Kentucky" display="https://en.wikipedia.org/wiki/Woodland_Hills,_Kentucky" xr:uid="{A6B5B76D-620C-BA49-B0B7-740217BADA2F}"/>
+    <hyperlink ref="A90" r:id="rId89" tooltip="Woodlawn Park, Kentucky" display="https://en.wikipedia.org/wiki/Woodlawn_Park,_Kentucky" xr:uid="{80ED7746-97A1-0C43-823F-9DB5D20CB8A9}"/>
+    <hyperlink ref="A91" r:id="rId90" tooltip="Worthington Hills, Kentucky" display="https://en.wikipedia.org/wiki/Worthington_Hills,_Kentucky" xr:uid="{D2CE9E9C-CD53-2940-9849-C29140577526}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>